--- a/natmiOut/OldD2/LR-pairs_lrc2p/Fn1-Nt5e.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Fn1-Nt5e.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H2">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I2">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J2">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.15092121928969</v>
+        <v>3.6796555</v>
       </c>
       <c r="N2">
-        <v>3.15092121928969</v>
+        <v>7.359311</v>
       </c>
       <c r="O2">
-        <v>0.2505096093001433</v>
+        <v>0.2471150174360556</v>
       </c>
       <c r="P2">
-        <v>0.2505096093001433</v>
+        <v>0.1885323046020433</v>
       </c>
       <c r="Q2">
-        <v>124.4871378991256</v>
+        <v>149.8906030478302</v>
       </c>
       <c r="R2">
-        <v>124.4871378991256</v>
+        <v>599.562412191321</v>
       </c>
       <c r="S2">
-        <v>0.01710959223575247</v>
+        <v>0.01375904747770574</v>
       </c>
       <c r="T2">
-        <v>0.01710959223575247</v>
+        <v>0.007214503231763605</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H3">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I3">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J3">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.43639159232879</v>
+        <v>3.036914</v>
       </c>
       <c r="N3">
-        <v>2.43639159232879</v>
+        <v>9.110742</v>
       </c>
       <c r="O3">
-        <v>0.1937019250624196</v>
+        <v>0.203950357869589</v>
       </c>
       <c r="P3">
-        <v>0.1937019250624196</v>
+        <v>0.2334008150891611</v>
       </c>
       <c r="Q3">
-        <v>96.25737840531505</v>
+        <v>123.708556647327</v>
       </c>
       <c r="R3">
-        <v>96.25737840531505</v>
+        <v>742.2513398839619</v>
       </c>
       <c r="S3">
-        <v>0.01322967594878758</v>
+        <v>0.01135569455121798</v>
       </c>
       <c r="T3">
-        <v>0.01322967594878758</v>
+        <v>0.008931471655806419</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H4">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I4">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J4">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>3.07285640575676</v>
+        <v>3.767296666666667</v>
       </c>
       <c r="N4">
-        <v>3.07285640575676</v>
+        <v>11.30189</v>
       </c>
       <c r="O4">
-        <v>0.2443031748712206</v>
+        <v>0.2530007446268074</v>
       </c>
       <c r="P4">
-        <v>0.2443031748712206</v>
+        <v>0.2895340838373032</v>
       </c>
       <c r="Q4">
-        <v>121.4029398087862</v>
+        <v>153.460662071965</v>
       </c>
       <c r="R4">
-        <v>121.4029398087862</v>
+        <v>920.76397243179</v>
       </c>
       <c r="S4">
-        <v>0.01668569806812565</v>
+        <v>0.01408675722476445</v>
       </c>
       <c r="T4">
-        <v>0.01668569806812565</v>
+        <v>0.01107950485174995</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H5">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I5">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J5">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.898014960341731</v>
+        <v>0.951431</v>
       </c>
       <c r="N5">
-        <v>0.898014960341731</v>
+        <v>2.854293</v>
       </c>
       <c r="O5">
-        <v>0.0713954304803608</v>
+        <v>0.06389535328897061</v>
       </c>
       <c r="P5">
-        <v>0.0713954304803608</v>
+        <v>0.07312185030629635</v>
       </c>
       <c r="Q5">
-        <v>35.47892962831357</v>
+        <v>38.7564994463205</v>
       </c>
       <c r="R5">
-        <v>35.47892962831357</v>
+        <v>232.538996677923</v>
       </c>
       <c r="S5">
-        <v>0.004876246889002223</v>
+        <v>0.003557611385294372</v>
       </c>
       <c r="T5">
-        <v>0.004876246889002223</v>
+        <v>0.00279812961741938</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H6">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I6">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J6">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.38930663415654</v>
+        <v>1.498192666666667</v>
       </c>
       <c r="N6">
-        <v>1.38930663415654</v>
+        <v>4.494578000000001</v>
       </c>
       <c r="O6">
-        <v>0.1104548917281751</v>
+        <v>0.1006142849367024</v>
       </c>
       <c r="P6">
-        <v>0.1104548917281751</v>
+        <v>0.1151430002827225</v>
       </c>
       <c r="Q6">
-        <v>54.88896564332494</v>
+        <v>61.02881160709301</v>
       </c>
       <c r="R6">
-        <v>54.88896564332494</v>
+        <v>366.1728696425581</v>
       </c>
       <c r="S6">
-        <v>0.007543974712957977</v>
+        <v>0.005602074441864802</v>
       </c>
       <c r="T6">
-        <v>0.007543974712957977</v>
+        <v>0.00440613904024624</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>39.5081721297966</v>
+        <v>40.7349555</v>
       </c>
       <c r="H7">
-        <v>39.5081721297966</v>
+        <v>81.469911</v>
       </c>
       <c r="I7">
-        <v>0.0682991454242098</v>
+        <v>0.05567871843833241</v>
       </c>
       <c r="J7">
-        <v>0.0682991454242098</v>
+        <v>0.03826666865920979</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.63055450979107</v>
+        <v>1.956967</v>
       </c>
       <c r="N7">
-        <v>1.63055450979107</v>
+        <v>3.913934</v>
       </c>
       <c r="O7">
-        <v>0.1296349685576806</v>
+        <v>0.131424241841875</v>
       </c>
       <c r="P7">
-        <v>0.1296349685576806</v>
+        <v>0.1002679458824737</v>
       </c>
       <c r="Q7">
-        <v>64.42022823984171</v>
+        <v>79.7169636599685</v>
       </c>
       <c r="R7">
-        <v>64.42022823984171</v>
+        <v>318.867854639874</v>
       </c>
       <c r="S7">
-        <v>0.008853957569583895</v>
+        <v>0.007317533357485063</v>
       </c>
       <c r="T7">
-        <v>0.008853957569583895</v>
+        <v>0.003836920262224201</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H8">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I8">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J8">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.15092121928969</v>
+        <v>3.6796555</v>
       </c>
       <c r="N8">
-        <v>3.15092121928969</v>
+        <v>7.359311</v>
       </c>
       <c r="O8">
-        <v>0.2505096093001433</v>
+        <v>0.2471150174360556</v>
       </c>
       <c r="P8">
-        <v>0.2505096093001433</v>
+        <v>0.1885323046020433</v>
       </c>
       <c r="Q8">
-        <v>1042.230946929188</v>
+        <v>1289.321506521487</v>
       </c>
       <c r="R8">
-        <v>1042.230946929188</v>
+        <v>7735.92903912892</v>
       </c>
       <c r="S8">
-        <v>0.1432448911460259</v>
+        <v>0.1183518877203759</v>
       </c>
       <c r="T8">
-        <v>0.1432448911460259</v>
+        <v>0.09308603060940417</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H9">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I9">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J9">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.43639159232879</v>
+        <v>3.036914</v>
       </c>
       <c r="N9">
-        <v>2.43639159232879</v>
+        <v>9.110742</v>
       </c>
       <c r="O9">
-        <v>0.1937019250624196</v>
+        <v>0.203950357869589</v>
       </c>
       <c r="P9">
-        <v>0.1937019250624196</v>
+        <v>0.2334008150891611</v>
       </c>
       <c r="Q9">
-        <v>805.885815493532</v>
+        <v>1064.110086842693</v>
       </c>
       <c r="R9">
-        <v>805.885815493532</v>
+        <v>9576.99078158424</v>
       </c>
       <c r="S9">
-        <v>0.1107614643919613</v>
+        <v>0.09767884649648249</v>
       </c>
       <c r="T9">
-        <v>0.1107614643919613</v>
+        <v>0.1152394305236433</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H10">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I10">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J10">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.07285640575676</v>
+        <v>3.767296666666667</v>
       </c>
       <c r="N10">
-        <v>3.07285640575676</v>
+        <v>11.30189</v>
       </c>
       <c r="O10">
-        <v>0.2443031748712206</v>
+        <v>0.2530007446268074</v>
       </c>
       <c r="P10">
-        <v>0.2443031748712206</v>
+        <v>0.2895340838373032</v>
       </c>
       <c r="Q10">
-        <v>1016.409430341535</v>
+        <v>1320.030262012311</v>
       </c>
       <c r="R10">
-        <v>1016.409430341535</v>
+        <v>11880.2723581108</v>
       </c>
       <c r="S10">
-        <v>0.1396959653117646</v>
+        <v>0.121170765062838</v>
       </c>
       <c r="T10">
-        <v>0.1396959653117646</v>
+        <v>0.1429546975911358</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H11">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I11">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J11">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.898014960341731</v>
+        <v>0.951431</v>
       </c>
       <c r="N11">
-        <v>0.898014960341731</v>
+        <v>2.854293</v>
       </c>
       <c r="O11">
-        <v>0.0713954304803608</v>
+        <v>0.06389535328897061</v>
       </c>
       <c r="P11">
-        <v>0.0713954304803608</v>
+        <v>0.07312185030629635</v>
       </c>
       <c r="Q11">
-        <v>297.0366179718474</v>
+        <v>333.3737221517733</v>
       </c>
       <c r="R11">
-        <v>297.0366179718474</v>
+        <v>3000.36349936596</v>
       </c>
       <c r="S11">
-        <v>0.04082490366758595</v>
+        <v>0.03060168401245305</v>
       </c>
       <c r="T11">
-        <v>0.04082490366758595</v>
+        <v>0.03610321748411069</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H12">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I12">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J12">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.38930663415654</v>
+        <v>1.498192666666667</v>
       </c>
       <c r="N12">
-        <v>1.38930663415654</v>
+        <v>4.494578000000001</v>
       </c>
       <c r="O12">
-        <v>0.1104548917281751</v>
+        <v>0.1006142849367024</v>
       </c>
       <c r="P12">
-        <v>0.1104548917281751</v>
+        <v>0.1151430002827225</v>
       </c>
       <c r="Q12">
-        <v>459.5412795558215</v>
+        <v>524.9545850273512</v>
       </c>
       <c r="R12">
-        <v>459.5412795558215</v>
+        <v>4724.59126524616</v>
       </c>
       <c r="S12">
-        <v>0.06315964879092351</v>
+        <v>0.04818764426963988</v>
       </c>
       <c r="T12">
-        <v>0.06315964879092351</v>
+        <v>0.05685076025246856</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>330.770233336439</v>
+        <v>350.3919066666667</v>
       </c>
       <c r="H13">
-        <v>330.770233336439</v>
+        <v>1051.17572</v>
       </c>
       <c r="I13">
-        <v>0.5718139577408378</v>
+        <v>0.4789344206933965</v>
       </c>
       <c r="J13">
-        <v>0.5718139577408378</v>
+        <v>0.4937404802104949</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.63055450979107</v>
+        <v>1.956967</v>
       </c>
       <c r="N13">
-        <v>1.63055450979107</v>
+        <v>3.913934</v>
       </c>
       <c r="O13">
-        <v>0.1296349685576806</v>
+        <v>0.131424241841875</v>
       </c>
       <c r="P13">
-        <v>0.1296349685576806</v>
+        <v>0.1002679458824737</v>
       </c>
       <c r="Q13">
-        <v>539.3388956713751</v>
+        <v>685.7053984137466</v>
       </c>
       <c r="R13">
-        <v>539.3388956713751</v>
+        <v>4114.23239048248</v>
       </c>
       <c r="S13">
-        <v>0.07412708443257643</v>
+        <v>0.06294359313160723</v>
       </c>
       <c r="T13">
-        <v>0.07412708443257643</v>
+        <v>0.04950634374973251</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>124.704849261112</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H14">
-        <v>124.704849261112</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I14">
-        <v>0.2155815917478311</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J14">
-        <v>0.2155815917478311</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.15092121928969</v>
+        <v>3.6796555</v>
       </c>
       <c r="N14">
-        <v>3.15092121928969</v>
+        <v>7.359311</v>
       </c>
       <c r="O14">
-        <v>0.2505096093001433</v>
+        <v>0.2471150174360556</v>
       </c>
       <c r="P14">
-        <v>0.2505096093001433</v>
+        <v>0.1885323046020433</v>
       </c>
       <c r="Q14">
-        <v>392.93515568516</v>
+        <v>897.2056292783684</v>
       </c>
       <c r="R14">
-        <v>392.93515568516</v>
+        <v>5383.23377567021</v>
       </c>
       <c r="S14">
-        <v>0.05400526032105218</v>
+        <v>0.08235803045349498</v>
       </c>
       <c r="T14">
-        <v>0.05400526032105218</v>
+        <v>0.06477617122455415</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>124.704849261112</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H15">
-        <v>124.704849261112</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I15">
-        <v>0.2155815917478311</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J15">
-        <v>0.2155815917478311</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>2.43639159232879</v>
+        <v>3.036914</v>
       </c>
       <c r="N15">
-        <v>2.43639159232879</v>
+        <v>9.110742</v>
       </c>
       <c r="O15">
-        <v>0.1937019250624196</v>
+        <v>0.203950357869589</v>
       </c>
       <c r="P15">
-        <v>0.1937019250624196</v>
+        <v>0.2334008150891611</v>
       </c>
       <c r="Q15">
-        <v>303.8298462624024</v>
+        <v>740.4868027548467</v>
       </c>
       <c r="R15">
-        <v>303.8298462624024</v>
+        <v>6664.38122479362</v>
       </c>
       <c r="S15">
-        <v>0.04175856932957552</v>
+        <v>0.06797219351013845</v>
       </c>
       <c r="T15">
-        <v>0.04175856932957552</v>
+        <v>0.0801921516531557</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>124.704849261112</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H16">
-        <v>124.704849261112</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I16">
-        <v>0.2155815917478311</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J16">
-        <v>0.2155815917478311</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.07285640575676</v>
+        <v>3.767296666666667</v>
       </c>
       <c r="N16">
-        <v>3.07285640575676</v>
+        <v>11.30189</v>
       </c>
       <c r="O16">
-        <v>0.2443031748712206</v>
+        <v>0.2530007446268074</v>
       </c>
       <c r="P16">
-        <v>0.2443031748712206</v>
+        <v>0.2895340838373032</v>
       </c>
       <c r="Q16">
-        <v>383.2000948809392</v>
+        <v>918.5750613053223</v>
       </c>
       <c r="R16">
-        <v>383.2000948809392</v>
+        <v>8267.175551747901</v>
       </c>
       <c r="S16">
-        <v>0.05266726730778647</v>
+        <v>0.0843196145945411</v>
       </c>
       <c r="T16">
-        <v>0.05266726730778647</v>
+        <v>0.09947849218508041</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>124.704849261112</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H17">
-        <v>124.704849261112</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I17">
-        <v>0.2155815917478311</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J17">
-        <v>0.2155815917478311</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.898014960341731</v>
+        <v>0.951431</v>
       </c>
       <c r="N17">
-        <v>0.898014960341731</v>
+        <v>2.854293</v>
       </c>
       <c r="O17">
-        <v>0.0713954304803608</v>
+        <v>0.06389535328897061</v>
       </c>
       <c r="P17">
-        <v>0.0713954304803608</v>
+        <v>0.07312185030629635</v>
       </c>
       <c r="Q17">
-        <v>111.986820263639</v>
+        <v>231.9861870411367</v>
       </c>
       <c r="R17">
-        <v>111.986820263639</v>
+        <v>2087.87568337023</v>
       </c>
       <c r="S17">
-        <v>0.0153915405464778</v>
+        <v>0.02129492374283385</v>
       </c>
       <c r="T17">
-        <v>0.0153915405464778</v>
+        <v>0.02512329919105829</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>124.704849261112</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H18">
-        <v>124.704849261112</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I18">
-        <v>0.2155815917478311</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J18">
-        <v>0.2155815917478311</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.38930663415654</v>
+        <v>1.498192666666667</v>
       </c>
       <c r="N18">
-        <v>1.38930663415654</v>
+        <v>4.494578000000001</v>
       </c>
       <c r="O18">
-        <v>0.1104548917281751</v>
+        <v>0.1006142849367024</v>
       </c>
       <c r="P18">
-        <v>0.1104548917281751</v>
+        <v>0.1151430002827225</v>
       </c>
       <c r="Q18">
-        <v>173.2532743899542</v>
+        <v>365.3023752568423</v>
       </c>
       <c r="R18">
-        <v>173.2532743899542</v>
+        <v>3287.721377311581</v>
       </c>
       <c r="S18">
-        <v>0.02381204137509433</v>
+        <v>0.0335325405507489</v>
       </c>
       <c r="T18">
-        <v>0.02381204137509433</v>
+        <v>0.03956097984038372</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>124.704849261112</v>
+        <v>243.8287033333334</v>
       </c>
       <c r="H19">
-        <v>124.704849261112</v>
+        <v>731.4861100000001</v>
       </c>
       <c r="I19">
-        <v>0.2155815917478311</v>
+        <v>0.3332781281688242</v>
       </c>
       <c r="J19">
-        <v>0.2155815917478311</v>
+        <v>0.3435812836494235</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.63055450979107</v>
+        <v>1.956967</v>
       </c>
       <c r="N19">
-        <v>1.63055450979107</v>
+        <v>3.913934</v>
       </c>
       <c r="O19">
-        <v>0.1296349685576806</v>
+        <v>0.131424241841875</v>
       </c>
       <c r="P19">
-        <v>0.1296349685576806</v>
+        <v>0.1002679458824737</v>
       </c>
       <c r="Q19">
-        <v>203.3380543555218</v>
+        <v>477.1647260761233</v>
       </c>
       <c r="R19">
-        <v>203.3380543555218</v>
+        <v>2862.98835645674</v>
       </c>
       <c r="S19">
-        <v>0.02794691286784484</v>
+        <v>0.04380082531706696</v>
       </c>
       <c r="T19">
-        <v>0.02794691286784484</v>
+        <v>0.03445018955519125</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>39.3596523797394</v>
+        <v>48.737294</v>
       </c>
       <c r="H20">
-        <v>39.3596523797394</v>
+        <v>146.211882</v>
       </c>
       <c r="I20">
-        <v>0.06804239418868824</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J20">
-        <v>0.06804239418868824</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.15092121928969</v>
+        <v>3.6796555</v>
       </c>
       <c r="N20">
-        <v>3.15092121928969</v>
+        <v>7.359311</v>
       </c>
       <c r="O20">
-        <v>0.2505096093001433</v>
+        <v>0.2471150174360556</v>
       </c>
       <c r="P20">
-        <v>0.2505096093001433</v>
+        <v>0.1885323046020433</v>
       </c>
       <c r="Q20">
-        <v>124.0191638671868</v>
+        <v>179.336451922217</v>
       </c>
       <c r="R20">
-        <v>124.0191638671868</v>
+        <v>1076.018711533302</v>
       </c>
       <c r="S20">
-        <v>0.01704527358405463</v>
+        <v>0.01646199765901066</v>
       </c>
       <c r="T20">
-        <v>0.01704527358405463</v>
+        <v>0.01294767702902288</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>39.3596523797394</v>
+        <v>48.737294</v>
       </c>
       <c r="H21">
-        <v>39.3596523797394</v>
+        <v>146.211882</v>
       </c>
       <c r="I21">
-        <v>0.06804239418868824</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J21">
-        <v>0.06804239418868824</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>2.43639159232879</v>
+        <v>3.036914</v>
       </c>
       <c r="N21">
-        <v>2.43639159232879</v>
+        <v>9.110742</v>
       </c>
       <c r="O21">
-        <v>0.1937019250624196</v>
+        <v>0.203950357869589</v>
       </c>
       <c r="P21">
-        <v>0.1937019250624196</v>
+        <v>0.2334008150891611</v>
       </c>
       <c r="Q21">
-        <v>95.89552613498093</v>
+        <v>148.010970470716</v>
       </c>
       <c r="R21">
-        <v>95.89552613498093</v>
+        <v>1332.098734236444</v>
       </c>
       <c r="S21">
-        <v>0.0131799427402049</v>
+        <v>0.01358650861707481</v>
       </c>
       <c r="T21">
-        <v>0.0131799427402049</v>
+        <v>0.01602907458466615</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>39.3596523797394</v>
+        <v>48.737294</v>
       </c>
       <c r="H22">
-        <v>39.3596523797394</v>
+        <v>146.211882</v>
       </c>
       <c r="I22">
-        <v>0.06804239418868824</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J22">
-        <v>0.06804239418868824</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.07285640575676</v>
+        <v>3.767296666666667</v>
       </c>
       <c r="N22">
-        <v>3.07285640575676</v>
+        <v>11.30189</v>
       </c>
       <c r="O22">
-        <v>0.2443031748712206</v>
+        <v>0.2530007446268074</v>
       </c>
       <c r="P22">
-        <v>0.2443031748712206</v>
+        <v>0.2895340838373032</v>
       </c>
       <c r="Q22">
-        <v>120.9465599434415</v>
+        <v>183.6078452285533</v>
       </c>
       <c r="R22">
-        <v>120.9465599434415</v>
+        <v>1652.47060705698</v>
       </c>
       <c r="S22">
-        <v>0.01662297292613563</v>
+        <v>0.01685408563586056</v>
       </c>
       <c r="T22">
-        <v>0.01662297292613563</v>
+        <v>0.01988409261920626</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>39.3596523797394</v>
+        <v>48.737294</v>
       </c>
       <c r="H23">
-        <v>39.3596523797394</v>
+        <v>146.211882</v>
       </c>
       <c r="I23">
-        <v>0.06804239418868824</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J23">
-        <v>0.06804239418868824</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.898014960341731</v>
+        <v>0.951431</v>
       </c>
       <c r="N23">
-        <v>0.898014960341731</v>
+        <v>2.854293</v>
       </c>
       <c r="O23">
-        <v>0.0713954304803608</v>
+        <v>0.06389535328897061</v>
       </c>
       <c r="P23">
-        <v>0.0713954304803608</v>
+        <v>0.07312185030629635</v>
       </c>
       <c r="Q23">
-        <v>35.345556670856</v>
+        <v>46.370172367714</v>
       </c>
       <c r="R23">
-        <v>35.345556670856</v>
+        <v>417.3315513094261</v>
       </c>
       <c r="S23">
-        <v>0.004857916024015797</v>
+        <v>0.004256500342140771</v>
       </c>
       <c r="T23">
-        <v>0.004857916024015797</v>
+        <v>0.005021728788224987</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>39.3596523797394</v>
+        <v>48.737294</v>
       </c>
       <c r="H24">
-        <v>39.3596523797394</v>
+        <v>146.211882</v>
       </c>
       <c r="I24">
-        <v>0.06804239418868824</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J24">
-        <v>0.06804239418868824</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.38930663415654</v>
+        <v>1.498192666666667</v>
       </c>
       <c r="N24">
-        <v>1.38930663415654</v>
+        <v>4.494578000000001</v>
       </c>
       <c r="O24">
-        <v>0.1104548917281751</v>
+        <v>0.1006142849367024</v>
       </c>
       <c r="P24">
-        <v>0.1104548917281751</v>
+        <v>0.1151430002827225</v>
       </c>
       <c r="Q24">
-        <v>54.6826261692672</v>
+        <v>73.01785646397734</v>
       </c>
       <c r="R24">
-        <v>54.6826261692672</v>
+        <v>657.1607081757961</v>
       </c>
       <c r="S24">
-        <v>0.007515615283037368</v>
+        <v>0.006702595982535216</v>
       </c>
       <c r="T24">
-        <v>0.007515615283037368</v>
+        <v>0.007907580522925534</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>39.3596523797394</v>
+        <v>48.737294</v>
       </c>
       <c r="H25">
-        <v>39.3596523797394</v>
+        <v>146.211882</v>
       </c>
       <c r="I25">
-        <v>0.06804239418868824</v>
+        <v>0.06661674320651284</v>
       </c>
       <c r="J25">
-        <v>0.06804239418868824</v>
+        <v>0.06867617226847689</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.63055450979107</v>
+        <v>1.956967</v>
       </c>
       <c r="N25">
-        <v>1.63055450979107</v>
+        <v>3.913934</v>
       </c>
       <c r="O25">
-        <v>0.1296349685576806</v>
+        <v>0.131424241841875</v>
       </c>
       <c r="P25">
-        <v>0.1296349685576806</v>
+        <v>0.1002679458824737</v>
       </c>
       <c r="Q25">
-        <v>64.17805869159291</v>
+        <v>95.377276027298</v>
       </c>
       <c r="R25">
-        <v>64.17805869159291</v>
+        <v>572.263656163788</v>
       </c>
       <c r="S25">
-        <v>0.008820673631239912</v>
+        <v>0.008755054969890826</v>
       </c>
       <c r="T25">
-        <v>0.008820673631239912</v>
+        <v>0.006886018724431084</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>22.4013115348323</v>
+        <v>22.832077</v>
       </c>
       <c r="H26">
-        <v>22.4013115348323</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I26">
-        <v>0.03872592306179204</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J26">
-        <v>0.03872592306179204</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.15092121928969</v>
+        <v>3.6796555</v>
       </c>
       <c r="N26">
-        <v>3.15092121928969</v>
+        <v>7.359311</v>
       </c>
       <c r="O26">
-        <v>0.2505096093001433</v>
+        <v>0.2471150174360556</v>
       </c>
       <c r="P26">
-        <v>0.2505096093001433</v>
+        <v>0.1885323046020433</v>
       </c>
       <c r="Q26">
-        <v>70.58476785502198</v>
+        <v>84.01417770947349</v>
       </c>
       <c r="R26">
-        <v>70.58476785502198</v>
+        <v>504.0850662568409</v>
       </c>
       <c r="S26">
-        <v>0.009701215855996934</v>
+        <v>0.007711991521817996</v>
       </c>
       <c r="T26">
-        <v>0.009701215855996934</v>
+        <v>0.006065629308385109</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>22.4013115348323</v>
+        <v>22.832077</v>
       </c>
       <c r="H27">
-        <v>22.4013115348323</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I27">
-        <v>0.03872592306179204</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J27">
-        <v>0.03872592306179204</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>2.43639159232879</v>
+        <v>3.036914</v>
       </c>
       <c r="N27">
-        <v>2.43639159232879</v>
+        <v>9.110742</v>
       </c>
       <c r="O27">
-        <v>0.1937019250624196</v>
+        <v>0.203950357869589</v>
       </c>
       <c r="P27">
-        <v>0.1937019250624196</v>
+        <v>0.2334008150891611</v>
       </c>
       <c r="Q27">
-        <v>54.57836708060336</v>
+        <v>69.33905429037799</v>
       </c>
       <c r="R27">
-        <v>54.57836708060336</v>
+        <v>624.0514886134019</v>
       </c>
       <c r="S27">
-        <v>0.007501285846888269</v>
+        <v>0.006364904274460036</v>
       </c>
       <c r="T27">
-        <v>0.007501285846888269</v>
+        <v>0.007509179010961103</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>22.4013115348323</v>
+        <v>22.832077</v>
       </c>
       <c r="H28">
-        <v>22.4013115348323</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I28">
-        <v>0.03872592306179204</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J28">
-        <v>0.03872592306179204</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>3.07285640575676</v>
+        <v>3.767296666666667</v>
       </c>
       <c r="N28">
-        <v>3.07285640575676</v>
+        <v>11.30189</v>
       </c>
       <c r="O28">
-        <v>0.2443031748712206</v>
+        <v>0.2530007446268074</v>
       </c>
       <c r="P28">
-        <v>0.2443031748712206</v>
+        <v>0.2895340838373032</v>
       </c>
       <c r="Q28">
-        <v>68.83601364716223</v>
+        <v>86.01520757517666</v>
       </c>
       <c r="R28">
-        <v>68.83601364716223</v>
+        <v>774.1368681765899</v>
       </c>
       <c r="S28">
-        <v>0.009460865953814415</v>
+        <v>0.007895673916622501</v>
       </c>
       <c r="T28">
-        <v>0.009460865953814415</v>
+        <v>0.00931514855455145</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>22.4013115348323</v>
+        <v>22.832077</v>
       </c>
       <c r="H29">
-        <v>22.4013115348323</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I29">
-        <v>0.03872592306179204</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J29">
-        <v>0.03872592306179204</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.898014960341731</v>
+        <v>0.951431</v>
       </c>
       <c r="N29">
-        <v>0.898014960341731</v>
+        <v>2.854293</v>
       </c>
       <c r="O29">
-        <v>0.0713954304803608</v>
+        <v>0.06389535328897061</v>
       </c>
       <c r="P29">
-        <v>0.0713954304803608</v>
+        <v>0.07312185030629635</v>
       </c>
       <c r="Q29">
-        <v>20.11671288955519</v>
+        <v>21.723145852187</v>
       </c>
       <c r="R29">
-        <v>20.11671288955519</v>
+        <v>195.508312669683</v>
       </c>
       <c r="S29">
-        <v>0.002764853947745975</v>
+        <v>0.001994052923050763</v>
       </c>
       <c r="T29">
-        <v>0.002764853947745975</v>
+        <v>0.002352541328327946</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>22.4013115348323</v>
+        <v>22.832077</v>
       </c>
       <c r="H30">
-        <v>22.4013115348323</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I30">
-        <v>0.03872592306179204</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J30">
-        <v>0.03872592306179204</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>1.38930663415654</v>
+        <v>1.498192666666667</v>
       </c>
       <c r="N30">
-        <v>1.38930663415654</v>
+        <v>4.494578000000001</v>
       </c>
       <c r="O30">
-        <v>0.1104548917281751</v>
+        <v>0.1006142849367024</v>
       </c>
       <c r="P30">
-        <v>0.1104548917281751</v>
+        <v>0.1151430002827225</v>
       </c>
       <c r="Q30">
-        <v>31.12229072914994</v>
+        <v>34.20685032616867</v>
       </c>
       <c r="R30">
-        <v>31.12229072914994</v>
+        <v>307.861652935518</v>
       </c>
       <c r="S30">
-        <v>0.004277467638863878</v>
+        <v>0.003139981213834619</v>
       </c>
       <c r="T30">
-        <v>0.004277467638863878</v>
+        <v>0.003704483211216774</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>22.4013115348323</v>
+        <v>22.832077</v>
       </c>
       <c r="H31">
-        <v>22.4013115348323</v>
+        <v>68.49623099999999</v>
       </c>
       <c r="I31">
-        <v>0.03872592306179204</v>
+        <v>0.03120810544755168</v>
       </c>
       <c r="J31">
-        <v>0.03872592306179204</v>
+        <v>0.03217289111905</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>1.63055450979107</v>
+        <v>1.956967</v>
       </c>
       <c r="N31">
-        <v>1.63055450979107</v>
+        <v>3.913934</v>
       </c>
       <c r="O31">
-        <v>0.1296349685576806</v>
+        <v>0.131424241841875</v>
       </c>
       <c r="P31">
-        <v>0.1296349685576806</v>
+        <v>0.1002679458824737</v>
       </c>
       <c r="Q31">
-        <v>36.52655954835552</v>
+        <v>44.68162123045899</v>
       </c>
       <c r="R31">
-        <v>36.52655954835552</v>
+        <v>268.0897273827539</v>
       </c>
       <c r="S31">
-        <v>0.005020233818482571</v>
+        <v>0.004101501597765769</v>
       </c>
       <c r="T31">
-        <v>0.005020233818482571</v>
+        <v>0.003225909705607626</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>21.7135627023294</v>
+        <v>25.082339</v>
       </c>
       <c r="H32">
-        <v>21.7135627023294</v>
+        <v>50.164678</v>
       </c>
       <c r="I32">
-        <v>0.037536987836641</v>
+        <v>0.03428388404538221</v>
       </c>
       <c r="J32">
-        <v>0.037536987836641</v>
+        <v>0.02356250409334498</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>3.15092121928969</v>
+        <v>3.6796555</v>
       </c>
       <c r="N32">
-        <v>3.15092121928969</v>
+        <v>7.359311</v>
       </c>
       <c r="O32">
-        <v>0.2505096093001433</v>
+        <v>0.2471150174360556</v>
       </c>
       <c r="P32">
-        <v>0.2505096093001433</v>
+        <v>0.1885323046020433</v>
       </c>
       <c r="Q32">
-        <v>68.41772546514689</v>
+        <v>92.2943666542145</v>
       </c>
       <c r="R32">
-        <v>68.41772546514689</v>
+        <v>369.177466616858</v>
       </c>
       <c r="S32">
-        <v>0.009403376157261169</v>
+        <v>0.008472062603650334</v>
       </c>
       <c r="T32">
-        <v>0.009403376157261169</v>
+        <v>0.004442293198913407</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>21.7135627023294</v>
+        <v>25.082339</v>
       </c>
       <c r="H33">
-        <v>21.7135627023294</v>
+        <v>50.164678</v>
       </c>
       <c r="I33">
-        <v>0.037536987836641</v>
+        <v>0.03428388404538221</v>
       </c>
       <c r="J33">
-        <v>0.037536987836641</v>
+        <v>0.02356250409334498</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>2.43639159232879</v>
+        <v>3.036914</v>
       </c>
       <c r="N33">
-        <v>2.43639159232879</v>
+        <v>9.110742</v>
       </c>
       <c r="O33">
-        <v>0.1937019250624196</v>
+        <v>0.203950357869589</v>
       </c>
       <c r="P33">
-        <v>0.1937019250624196</v>
+        <v>0.2334008150891611</v>
       </c>
       <c r="Q33">
-        <v>52.90274160745935</v>
+        <v>76.172906461846</v>
       </c>
       <c r="R33">
-        <v>52.90274160745935</v>
+        <v>457.037438771076</v>
       </c>
       <c r="S33">
-        <v>0.007270986805001991</v>
+        <v>0.006992210420215195</v>
       </c>
       <c r="T33">
-        <v>0.007270986805001991</v>
+        <v>0.005499507660928413</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>21.7135627023294</v>
+        <v>25.082339</v>
       </c>
       <c r="H34">
-        <v>21.7135627023294</v>
+        <v>50.164678</v>
       </c>
       <c r="I34">
-        <v>0.037536987836641</v>
+        <v>0.03428388404538221</v>
       </c>
       <c r="J34">
-        <v>0.037536987836641</v>
+        <v>0.02356250409334498</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>3.07285640575676</v>
+        <v>3.767296666666667</v>
       </c>
       <c r="N34">
-        <v>3.07285640575676</v>
+        <v>11.30189</v>
       </c>
       <c r="O34">
-        <v>0.2443031748712206</v>
+        <v>0.2530007446268074</v>
       </c>
       <c r="P34">
-        <v>0.2443031748712206</v>
+        <v>0.2895340838373032</v>
       </c>
       <c r="Q34">
-        <v>66.72266024165397</v>
+        <v>94.49261210690334</v>
       </c>
       <c r="R34">
-        <v>66.72266024165397</v>
+        <v>566.9556726414201</v>
       </c>
       <c r="S34">
-        <v>0.009170405303593787</v>
+        <v>0.008673848192180823</v>
       </c>
       <c r="T34">
-        <v>0.009170405303593787</v>
+        <v>0.006822148035579343</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>21.7135627023294</v>
+        <v>25.082339</v>
       </c>
       <c r="H35">
-        <v>21.7135627023294</v>
+        <v>50.164678</v>
       </c>
       <c r="I35">
-        <v>0.037536987836641</v>
+        <v>0.03428388404538221</v>
       </c>
       <c r="J35">
-        <v>0.037536987836641</v>
+        <v>0.02356250409334498</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>0.898014960341731</v>
+        <v>0.951431</v>
       </c>
       <c r="N35">
-        <v>0.898014960341731</v>
+        <v>2.854293</v>
       </c>
       <c r="O35">
-        <v>0.0713954304803608</v>
+        <v>0.06389535328897061</v>
       </c>
       <c r="P35">
-        <v>0.0713954304803608</v>
+        <v>0.07312185030629635</v>
       </c>
       <c r="Q35">
-        <v>19.49910414901003</v>
+        <v>23.864114877109</v>
       </c>
       <c r="R35">
-        <v>19.49910414901003</v>
+        <v>143.184689262654</v>
       </c>
       <c r="S35">
-        <v>0.002679969405533052</v>
+        <v>0.002190580883197799</v>
       </c>
       <c r="T35">
-        <v>0.002679969405533052</v>
+        <v>0.001722933897155066</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>21.7135627023294</v>
+        <v>25.082339</v>
       </c>
       <c r="H36">
-        <v>21.7135627023294</v>
+        <v>50.164678</v>
       </c>
       <c r="I36">
-        <v>0.037536987836641</v>
+        <v>0.03428388404538221</v>
       </c>
       <c r="J36">
-        <v>0.037536987836641</v>
+        <v>0.02356250409334498</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>1.38930663415654</v>
+        <v>1.498192666666667</v>
       </c>
       <c r="N36">
-        <v>1.38930663415654</v>
+        <v>4.494578000000001</v>
       </c>
       <c r="O36">
-        <v>0.1104548917281751</v>
+        <v>0.1006142849367024</v>
       </c>
       <c r="P36">
-        <v>0.1104548917281751</v>
+        <v>0.1151430002827225</v>
       </c>
       <c r="Q36">
-        <v>30.16679671352025</v>
+        <v>37.57817635264734</v>
       </c>
       <c r="R36">
-        <v>30.16679671352025</v>
+        <v>225.4690581158841</v>
       </c>
       <c r="S36">
-        <v>0.004146143927298006</v>
+        <v>0.00344944847807895</v>
       </c>
       <c r="T36">
-        <v>0.004146143927298006</v>
+        <v>0.00271305741548167</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>21.7135627023294</v>
+        <v>25.082339</v>
       </c>
       <c r="H37">
-        <v>21.7135627023294</v>
+        <v>50.164678</v>
       </c>
       <c r="I37">
-        <v>0.037536987836641</v>
+        <v>0.03428388404538221</v>
       </c>
       <c r="J37">
-        <v>0.037536987836641</v>
+        <v>0.02356250409334498</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>1.63055450979107</v>
+        <v>1.956967</v>
       </c>
       <c r="N37">
-        <v>1.63055450979107</v>
+        <v>3.913934</v>
       </c>
       <c r="O37">
-        <v>0.1296349685576806</v>
+        <v>0.131424241841875</v>
       </c>
       <c r="P37">
-        <v>0.1296349685576806</v>
+        <v>0.1002679458824737</v>
       </c>
       <c r="Q37">
-        <v>35.40514758791438</v>
+        <v>49.085309705813</v>
       </c>
       <c r="R37">
-        <v>35.40514758791438</v>
+        <v>196.341238823252</v>
       </c>
       <c r="S37">
-        <v>0.004866106237952997</v>
+        <v>0.004505733468059111</v>
       </c>
       <c r="T37">
-        <v>0.004866106237952997</v>
+        <v>0.00236256388528708</v>
       </c>
     </row>
   </sheetData>
